--- a/data/pca/factorExposure/factorExposure_2011-08-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.02079745326463328</v>
+        <v>0.01784039430705157</v>
       </c>
       <c r="C2">
-        <v>0.01220347528780702</v>
+        <v>0.006848792396488948</v>
       </c>
       <c r="D2">
-        <v>-0.04308986728849844</v>
+        <v>-0.02910879427484423</v>
       </c>
       <c r="E2">
-        <v>-0.06909746963224751</v>
+        <v>-0.03933072687600045</v>
       </c>
       <c r="F2">
-        <v>0.001342557475740857</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.02181123757605929</v>
+      </c>
+      <c r="G2">
+        <v>0.01703723955176317</v>
+      </c>
+      <c r="H2">
+        <v>-0.01416504743628139</v>
+      </c>
+      <c r="I2">
+        <v>0.006783804453372855</v>
+      </c>
+      <c r="J2">
+        <v>-0.04029498145635458</v>
+      </c>
+      <c r="K2">
+        <v>0.0683737406282444</v>
+      </c>
+      <c r="L2">
+        <v>-0.0565925424288039</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.07647324686548609</v>
+        <v>0.09291895934865983</v>
       </c>
       <c r="C4">
-        <v>0.04181564835593309</v>
+        <v>0.05101603125877147</v>
       </c>
       <c r="D4">
-        <v>-0.05482405516801597</v>
+        <v>-0.02865337813151073</v>
       </c>
       <c r="E4">
-        <v>-0.02081931749010038</v>
+        <v>-0.03356026631554475</v>
       </c>
       <c r="F4">
-        <v>0.02781310280000563</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07884833805970937</v>
+      </c>
+      <c r="G4">
+        <v>0.03982248388992436</v>
+      </c>
+      <c r="H4">
+        <v>-0.006266547973890535</v>
+      </c>
+      <c r="I4">
+        <v>-0.07466645655537917</v>
+      </c>
+      <c r="J4">
+        <v>0.01089211198527694</v>
+      </c>
+      <c r="K4">
+        <v>-0.05253774874876647</v>
+      </c>
+      <c r="L4">
+        <v>0.03913364085851208</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1236186411759232</v>
+        <v>0.1312972754102824</v>
       </c>
       <c r="C6">
-        <v>0.009140397890032648</v>
+        <v>0.01923429650201654</v>
       </c>
       <c r="D6">
-        <v>-0.06191938824774891</v>
+        <v>-0.06406178723174631</v>
       </c>
       <c r="E6">
-        <v>-0.07528777400943133</v>
+        <v>-0.01737317043767054</v>
       </c>
       <c r="F6">
-        <v>0.0365221728501433</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.05336087648756528</v>
+      </c>
+      <c r="G6">
+        <v>0.06433094809827376</v>
+      </c>
+      <c r="H6">
+        <v>0.172358904879462</v>
+      </c>
+      <c r="I6">
+        <v>-0.1046126923867696</v>
+      </c>
+      <c r="J6">
+        <v>0.4367551543305848</v>
+      </c>
+      <c r="K6">
+        <v>0.04358120352950767</v>
+      </c>
+      <c r="L6">
+        <v>0.03827592065118136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.06912370093477822</v>
+        <v>0.06990865039222503</v>
       </c>
       <c r="C7">
-        <v>0.006709191746471515</v>
+        <v>0.04738148184920701</v>
       </c>
       <c r="D7">
-        <v>-0.05285528393664341</v>
+        <v>-0.04365250049586175</v>
       </c>
       <c r="E7">
-        <v>-0.05858387485441164</v>
+        <v>-0.03644389169544283</v>
       </c>
       <c r="F7">
-        <v>0.004899366061013764</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.03738798885195913</v>
+      </c>
+      <c r="G7">
+        <v>-0.01406544791369966</v>
+      </c>
+      <c r="H7">
+        <v>-0.003318976701398483</v>
+      </c>
+      <c r="I7">
+        <v>-0.02354413758015032</v>
+      </c>
+      <c r="J7">
+        <v>-0.05915867866377427</v>
+      </c>
+      <c r="K7">
+        <v>-0.07365605104132662</v>
+      </c>
+      <c r="L7">
+        <v>-0.03225275798360339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.03635279535467856</v>
+        <v>0.03989915569646567</v>
       </c>
       <c r="C8">
-        <v>0.04657152255668903</v>
+        <v>0.02087490024967051</v>
       </c>
       <c r="D8">
-        <v>0.00758327612683838</v>
+        <v>0.00863629156046573</v>
       </c>
       <c r="E8">
-        <v>-0.05708499754213473</v>
+        <v>-0.06655996482510289</v>
       </c>
       <c r="F8">
-        <v>0.03669543477417792</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.0279085823297889</v>
+      </c>
+      <c r="G8">
+        <v>0.06508882982661308</v>
+      </c>
+      <c r="H8">
+        <v>0.02095406922198249</v>
+      </c>
+      <c r="I8">
+        <v>-0.09930212381729989</v>
+      </c>
+      <c r="J8">
+        <v>-0.005596743117445216</v>
+      </c>
+      <c r="K8">
+        <v>-0.04829126833966525</v>
+      </c>
+      <c r="L8">
+        <v>0.07006626086023932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.07726546760200463</v>
+        <v>0.08570727871258368</v>
       </c>
       <c r="C9">
-        <v>0.05407183672985673</v>
+        <v>0.05328894952633711</v>
       </c>
       <c r="D9">
-        <v>-0.05099374686478611</v>
+        <v>-0.02808755574807119</v>
       </c>
       <c r="E9">
-        <v>-0.02382914525775839</v>
+        <v>-0.02514260067163316</v>
       </c>
       <c r="F9">
-        <v>0.01799180923506773</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.06380460996397426</v>
+      </c>
+      <c r="G9">
+        <v>0.04730535561424315</v>
+      </c>
+      <c r="H9">
+        <v>-0.00737202662638493</v>
+      </c>
+      <c r="I9">
+        <v>-0.08261669137519279</v>
+      </c>
+      <c r="J9">
+        <v>0.002076343805497196</v>
+      </c>
+      <c r="K9">
+        <v>-0.03129732798232455</v>
+      </c>
+      <c r="L9">
+        <v>0.04499057596984671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.02149275892037576</v>
+        <v>0.07510555117471436</v>
       </c>
       <c r="C10">
-        <v>-0.1592543615279538</v>
+        <v>-0.1922569617999076</v>
       </c>
       <c r="D10">
-        <v>0.01201603708535777</v>
+        <v>-0.005280692169644408</v>
       </c>
       <c r="E10">
-        <v>-0.07427259942004875</v>
+        <v>-0.04823285781267649</v>
       </c>
       <c r="F10">
-        <v>0.04324624762080033</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03226191265633324</v>
+      </c>
+      <c r="G10">
+        <v>-0.05232455622714918</v>
+      </c>
+      <c r="H10">
+        <v>0.02841578794958922</v>
+      </c>
+      <c r="I10">
+        <v>0.03288774209157569</v>
+      </c>
+      <c r="J10">
+        <v>-0.01686940931276756</v>
+      </c>
+      <c r="K10">
+        <v>0.01035079133623822</v>
+      </c>
+      <c r="L10">
+        <v>-0.01437358429115134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.07266874288058314</v>
+        <v>0.07368234482358299</v>
       </c>
       <c r="C11">
-        <v>0.06171616427986177</v>
+        <v>0.06085280046372244</v>
       </c>
       <c r="D11">
-        <v>-0.04320380533719422</v>
+        <v>-0.03042020033199406</v>
       </c>
       <c r="E11">
-        <v>-0.03239236109917258</v>
+        <v>-0.01756044763787656</v>
       </c>
       <c r="F11">
-        <v>-0.005891934917628648</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.02893829831461859</v>
+      </c>
+      <c r="G11">
+        <v>0.07118795962951269</v>
+      </c>
+      <c r="H11">
+        <v>-0.01477072046077877</v>
+      </c>
+      <c r="I11">
+        <v>-0.04940755338955266</v>
+      </c>
+      <c r="J11">
+        <v>-0.07251329145331575</v>
+      </c>
+      <c r="K11">
+        <v>0.03266933694385316</v>
+      </c>
+      <c r="L11">
+        <v>0.03230373710111541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06865854802410522</v>
+        <v>0.07273001053824359</v>
       </c>
       <c r="C12">
-        <v>0.04604625706758722</v>
+        <v>0.05000971157658542</v>
       </c>
       <c r="D12">
-        <v>-0.04463948277869856</v>
+        <v>-0.01958373508318459</v>
       </c>
       <c r="E12">
-        <v>-0.02124931749743214</v>
+        <v>-0.01237533716187235</v>
       </c>
       <c r="F12">
-        <v>0.004405646427033135</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0376744966494932</v>
+      </c>
+      <c r="G12">
+        <v>0.05754723879849134</v>
+      </c>
+      <c r="H12">
+        <v>0.003141522260449188</v>
+      </c>
+      <c r="I12">
+        <v>-0.07491951712109819</v>
+      </c>
+      <c r="J12">
+        <v>-0.06713189232003626</v>
+      </c>
+      <c r="K12">
+        <v>0.007017533489800044</v>
+      </c>
+      <c r="L12">
+        <v>0.01830430475159334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.07755164218405516</v>
+        <v>0.06679735084687687</v>
       </c>
       <c r="C13">
-        <v>0.02748666794551001</v>
+        <v>0.03595518482947758</v>
       </c>
       <c r="D13">
-        <v>-0.02570391872684637</v>
+        <v>0.01460325030861159</v>
       </c>
       <c r="E13">
-        <v>-0.02327984797245765</v>
+        <v>-0.02514166012397229</v>
       </c>
       <c r="F13">
-        <v>0.006580065983025339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.02711565040851082</v>
+      </c>
+      <c r="G13">
+        <v>0.02357100573915581</v>
+      </c>
+      <c r="H13">
+        <v>-0.008175427065821963</v>
+      </c>
+      <c r="I13">
+        <v>-0.06554870690544246</v>
+      </c>
+      <c r="J13">
+        <v>-0.03125201544405975</v>
+      </c>
+      <c r="K13">
+        <v>-0.1100034820445561</v>
+      </c>
+      <c r="L13">
+        <v>0.01742116171150286</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.03466225697855597</v>
+        <v>0.04455068447300135</v>
       </c>
       <c r="C14">
-        <v>-0.009079280707572468</v>
+        <v>0.008130112087211991</v>
       </c>
       <c r="D14">
-        <v>-0.03378971528048655</v>
+        <v>-0.02847087318089018</v>
       </c>
       <c r="E14">
-        <v>-0.009017229196725462</v>
+        <v>-0.005392783919093358</v>
       </c>
       <c r="F14">
-        <v>0.01572324802266243</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03943358317069191</v>
+      </c>
+      <c r="G14">
+        <v>0.03243397889845493</v>
+      </c>
+      <c r="H14">
+        <v>-0.04343540394544899</v>
+      </c>
+      <c r="I14">
+        <v>-0.05720138106891878</v>
+      </c>
+      <c r="J14">
+        <v>0.01407422852198975</v>
+      </c>
+      <c r="K14">
+        <v>-0.05052132436429558</v>
+      </c>
+      <c r="L14">
+        <v>0.03382894486604358</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.05676000601156479</v>
+        <v>0.0437122225263125</v>
       </c>
       <c r="C15">
-        <v>0.01376293698386755</v>
+        <v>0.01671475044012843</v>
       </c>
       <c r="D15">
-        <v>-0.01674707073665584</v>
+        <v>0.01296277927568897</v>
       </c>
       <c r="E15">
-        <v>-0.01131596367511812</v>
+        <v>0.001460621509148458</v>
       </c>
       <c r="F15">
-        <v>0.03127515045151522</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.03144812952333545</v>
+      </c>
+      <c r="G15">
+        <v>0.01357790875792462</v>
+      </c>
+      <c r="H15">
+        <v>-0.00902338896395685</v>
+      </c>
+      <c r="I15">
+        <v>-0.03213528289965868</v>
+      </c>
+      <c r="J15">
+        <v>0.0378672200918528</v>
+      </c>
+      <c r="K15">
+        <v>-0.06797598469497079</v>
+      </c>
+      <c r="L15">
+        <v>0.0191504561312665</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.06140394592036414</v>
+        <v>0.07387263872480798</v>
       </c>
       <c r="C16">
-        <v>0.0617863467238406</v>
+        <v>0.06043551215399904</v>
       </c>
       <c r="D16">
-        <v>-0.04380825637610395</v>
+        <v>-0.02652757925661896</v>
       </c>
       <c r="E16">
-        <v>-0.02193696644574165</v>
+        <v>-0.01380867760913654</v>
       </c>
       <c r="F16">
-        <v>0.01275780599356472</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.04329973958956131</v>
+      </c>
+      <c r="G16">
+        <v>0.04797679523589198</v>
+      </c>
+      <c r="H16">
+        <v>-0.01808587034203778</v>
+      </c>
+      <c r="I16">
+        <v>-0.04734255172786578</v>
+      </c>
+      <c r="J16">
+        <v>-0.05129703452342371</v>
+      </c>
+      <c r="K16">
+        <v>0.01560851335941902</v>
+      </c>
+      <c r="L16">
+        <v>0.03101326131931758</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.06397669897789908</v>
+        <v>0.05967119988712712</v>
       </c>
       <c r="C20">
-        <v>0.04650915056313924</v>
+        <v>0.03575635423675815</v>
       </c>
       <c r="D20">
-        <v>-0.01977903905115095</v>
+        <v>-0.01637523326421029</v>
       </c>
       <c r="E20">
-        <v>-0.02988698066997282</v>
+        <v>-0.02001142353095526</v>
       </c>
       <c r="F20">
-        <v>0.01383180457280638</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01100584559233347</v>
+      </c>
+      <c r="G20">
+        <v>0.04918243752947966</v>
+      </c>
+      <c r="H20">
+        <v>-0.0313294433463098</v>
+      </c>
+      <c r="I20">
+        <v>-0.1165274502118991</v>
+      </c>
+      <c r="J20">
+        <v>-0.03379230906276305</v>
+      </c>
+      <c r="K20">
+        <v>-0.04458865450890241</v>
+      </c>
+      <c r="L20">
+        <v>-0.02363783923776287</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.0382574108505995</v>
+        <v>0.02933694146657828</v>
       </c>
       <c r="C21">
-        <v>0.01923644704887398</v>
+        <v>0.02239967714488717</v>
       </c>
       <c r="D21">
-        <v>0.02333706801334228</v>
+        <v>0.03146305162724177</v>
       </c>
       <c r="E21">
-        <v>-0.01755685131163901</v>
+        <v>-0.01677309930750475</v>
       </c>
       <c r="F21">
-        <v>0.05425987297752098</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.01183414260139782</v>
+      </c>
+      <c r="G21">
+        <v>0.006254394845449185</v>
+      </c>
+      <c r="H21">
+        <v>0.05758388356660665</v>
+      </c>
+      <c r="I21">
+        <v>-0.05737554382761634</v>
+      </c>
+      <c r="J21">
+        <v>0.05238084406750269</v>
+      </c>
+      <c r="K21">
+        <v>-0.04738429635176282</v>
+      </c>
+      <c r="L21">
+        <v>0.01104304040674112</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.1189699710792693</v>
+        <v>0.09043451074569876</v>
       </c>
       <c r="C22">
-        <v>0.1164967136215518</v>
+        <v>0.08515838455464776</v>
       </c>
       <c r="D22">
-        <v>0.02334883196594298</v>
+        <v>0.4062868358233243</v>
       </c>
       <c r="E22">
-        <v>-0.0005523135780652061</v>
+        <v>-0.135090341975738</v>
       </c>
       <c r="F22">
-        <v>0.398342582147181</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.3826894703144297</v>
+      </c>
+      <c r="G22">
+        <v>-0.2833718804132379</v>
+      </c>
+      <c r="H22">
+        <v>0.04865886251785512</v>
+      </c>
+      <c r="I22">
+        <v>0.1940235274627864</v>
+      </c>
+      <c r="J22">
+        <v>0.03531104323202414</v>
+      </c>
+      <c r="K22">
+        <v>0.0407312910463325</v>
+      </c>
+      <c r="L22">
+        <v>-0.0623672825111684</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.1199898762062277</v>
+        <v>0.09138484887380925</v>
       </c>
       <c r="C23">
-        <v>0.1157174128330724</v>
+        <v>0.08548916453522119</v>
       </c>
       <c r="D23">
-        <v>0.02135463183375757</v>
+        <v>0.4066632123321802</v>
       </c>
       <c r="E23">
-        <v>-0.001538801862776253</v>
+        <v>-0.1364091777490812</v>
       </c>
       <c r="F23">
-        <v>0.4004905809467966</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.387265385193918</v>
+      </c>
+      <c r="G23">
+        <v>-0.2783472348392798</v>
+      </c>
+      <c r="H23">
+        <v>0.04744397635870779</v>
+      </c>
+      <c r="I23">
+        <v>0.1943371453118148</v>
+      </c>
+      <c r="J23">
+        <v>0.04126370516747956</v>
+      </c>
+      <c r="K23">
+        <v>0.04299917511702733</v>
+      </c>
+      <c r="L23">
+        <v>-0.06282381554511191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.08300146525893194</v>
+        <v>0.08275611630039313</v>
       </c>
       <c r="C24">
-        <v>0.05948305787149977</v>
+        <v>0.05952444545927724</v>
       </c>
       <c r="D24">
-        <v>-0.04141995800694576</v>
+        <v>-0.01706553474388675</v>
       </c>
       <c r="E24">
-        <v>-0.03613770523318185</v>
+        <v>-0.02371007504282661</v>
       </c>
       <c r="F24">
-        <v>0.01950795700549419</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.0459428125263359</v>
+      </c>
+      <c r="G24">
+        <v>0.06620828968493518</v>
+      </c>
+      <c r="H24">
+        <v>0.003665891217185464</v>
+      </c>
+      <c r="I24">
+        <v>-0.06247567396043563</v>
+      </c>
+      <c r="J24">
+        <v>-0.05172646283069136</v>
+      </c>
+      <c r="K24">
+        <v>0.01906629620372343</v>
+      </c>
+      <c r="L24">
+        <v>0.03556588917128458</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.07800056890469867</v>
+        <v>0.07845527217213433</v>
       </c>
       <c r="C25">
-        <v>0.04835882786459197</v>
+        <v>0.04387161180320725</v>
       </c>
       <c r="D25">
-        <v>-0.0526637529720303</v>
+        <v>-0.02929478668403027</v>
       </c>
       <c r="E25">
-        <v>-0.04561090110780572</v>
+        <v>-0.022094757194733</v>
       </c>
       <c r="F25">
-        <v>0.02931889440319028</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.05020163150486677</v>
+      </c>
+      <c r="G25">
+        <v>0.06038382669956945</v>
+      </c>
+      <c r="H25">
+        <v>-0.01632456002902015</v>
+      </c>
+      <c r="I25">
+        <v>-0.07823831409575749</v>
+      </c>
+      <c r="J25">
+        <v>-0.05968845631033712</v>
+      </c>
+      <c r="K25">
+        <v>0.03730613638016869</v>
+      </c>
+      <c r="L25">
+        <v>0.02289201940033512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.05255426062988629</v>
+        <v>0.04595603304835892</v>
       </c>
       <c r="C26">
-        <v>0.01310198053306081</v>
+        <v>0.02448781634905237</v>
       </c>
       <c r="D26">
-        <v>-0.004526872880285855</v>
+        <v>0.01488029117178135</v>
       </c>
       <c r="E26">
-        <v>-0.03504220971005446</v>
+        <v>-0.0101530537415731</v>
       </c>
       <c r="F26">
-        <v>-0.01667883815267158</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.01540906497254041</v>
+      </c>
+      <c r="G26">
+        <v>0.0224322207913735</v>
+      </c>
+      <c r="H26">
+        <v>-0.02382262843047038</v>
+      </c>
+      <c r="I26">
+        <v>-0.02881868315181761</v>
+      </c>
+      <c r="J26">
+        <v>0.02862229967852291</v>
+      </c>
+      <c r="K26">
+        <v>-0.1209494354203346</v>
+      </c>
+      <c r="L26">
+        <v>0.002748891327467612</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.05309627252435092</v>
+        <v>0.09453457110976492</v>
       </c>
       <c r="C28">
-        <v>-0.297617955242086</v>
+        <v>-0.2959746098609117</v>
       </c>
       <c r="D28">
-        <v>0.02768042763516256</v>
+        <v>0.01824796798210713</v>
       </c>
       <c r="E28">
-        <v>-0.07784542478844921</v>
+        <v>-0.0377765460496414</v>
       </c>
       <c r="F28">
-        <v>-0.0001955766276588099</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.003338863219898358</v>
+      </c>
+      <c r="G28">
+        <v>0.007749765274912627</v>
+      </c>
+      <c r="H28">
+        <v>0.03447757810844132</v>
+      </c>
+      <c r="I28">
+        <v>0.02709154985039232</v>
+      </c>
+      <c r="J28">
+        <v>0.0191319993080939</v>
+      </c>
+      <c r="K28">
+        <v>-0.05203419340690382</v>
+      </c>
+      <c r="L28">
+        <v>0.03418887111528884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.05686301209124432</v>
+        <v>0.05349696565001644</v>
       </c>
       <c r="C29">
-        <v>-0.005686527359418562</v>
+        <v>0.01153010060731083</v>
       </c>
       <c r="D29">
-        <v>-0.03140499809057201</v>
+        <v>-0.01499990053302834</v>
       </c>
       <c r="E29">
-        <v>-0.02251677797670516</v>
+        <v>-0.02119818884883826</v>
       </c>
       <c r="F29">
-        <v>0.03770053692850467</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03889393461164917</v>
+      </c>
+      <c r="G29">
+        <v>0.032003990912636</v>
+      </c>
+      <c r="H29">
+        <v>-0.05160985832413437</v>
+      </c>
+      <c r="I29">
+        <v>-0.03947818402289151</v>
+      </c>
+      <c r="J29">
+        <v>0.01572890985648106</v>
+      </c>
+      <c r="K29">
+        <v>-0.04057623910829447</v>
+      </c>
+      <c r="L29">
+        <v>-0.0008097237006011236</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1503217616243347</v>
+        <v>0.1269420537240597</v>
       </c>
       <c r="C30">
-        <v>0.06060374936432793</v>
+        <v>0.05982501856843231</v>
       </c>
       <c r="D30">
-        <v>-0.07867752375308598</v>
+        <v>-0.004725597639844327</v>
       </c>
       <c r="E30">
-        <v>-0.0641144155703148</v>
+        <v>-0.06299675869574599</v>
       </c>
       <c r="F30">
-        <v>0.05138156910886968</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1124739282373837</v>
+      </c>
+      <c r="G30">
+        <v>0.08485784479373969</v>
+      </c>
+      <c r="H30">
+        <v>0.09811000511678154</v>
+      </c>
+      <c r="I30">
+        <v>-0.2219692504429067</v>
+      </c>
+      <c r="J30">
+        <v>-0.1537220746966347</v>
+      </c>
+      <c r="K30">
+        <v>-0.2842881117035853</v>
+      </c>
+      <c r="L30">
+        <v>-0.1628823491210662</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.06114537690267795</v>
+        <v>0.0476721799608052</v>
       </c>
       <c r="C31">
-        <v>0.01783886856962309</v>
+        <v>0.04142345045809867</v>
       </c>
       <c r="D31">
-        <v>-0.03285254645827347</v>
+        <v>-6.170224759817691e-05</v>
       </c>
       <c r="E31">
-        <v>-0.001901764265395002</v>
+        <v>0.005330613423851981</v>
       </c>
       <c r="F31">
-        <v>0.0007178919964665162</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.0237272395508817</v>
+      </c>
+      <c r="G31">
+        <v>0.001867029858080664</v>
+      </c>
+      <c r="H31">
+        <v>-0.05536165313183095</v>
+      </c>
+      <c r="I31">
+        <v>-0.04418407062627895</v>
+      </c>
+      <c r="J31">
+        <v>0.01497849827289236</v>
+      </c>
+      <c r="K31">
+        <v>-0.01816369295968997</v>
+      </c>
+      <c r="L31">
+        <v>-0.01611677146674536</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.0427971089026702</v>
+        <v>0.04810997368817307</v>
       </c>
       <c r="C32">
-        <v>0.002748517311665096</v>
+        <v>-0.006794275770318241</v>
       </c>
       <c r="D32">
-        <v>0.003731347898796776</v>
+        <v>0.0386561880164152</v>
       </c>
       <c r="E32">
-        <v>0.01069783850578488</v>
+        <v>-0.009720642060860431</v>
       </c>
       <c r="F32">
-        <v>0.06187783781422805</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.05231706961333973</v>
+      </c>
+      <c r="G32">
+        <v>-0.001808958009362378</v>
+      </c>
+      <c r="H32">
+        <v>0.005019228713517893</v>
+      </c>
+      <c r="I32">
+        <v>0.009218017959427064</v>
+      </c>
+      <c r="J32">
+        <v>-0.005967563261817818</v>
+      </c>
+      <c r="K32">
+        <v>-0.1356505990895026</v>
+      </c>
+      <c r="L32">
+        <v>0.003891621601765906</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1016275686723641</v>
+        <v>0.1056826710808235</v>
       </c>
       <c r="C33">
-        <v>0.02541732783902169</v>
+        <v>0.04655802913881796</v>
       </c>
       <c r="D33">
-        <v>-0.04237056411977426</v>
+        <v>-0.006315420188091459</v>
       </c>
       <c r="E33">
-        <v>-0.009371841822278921</v>
+        <v>0.01810456007353584</v>
       </c>
       <c r="F33">
-        <v>-0.01718957280950328</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.03842047735948999</v>
+      </c>
+      <c r="G33">
+        <v>0.02990865927774919</v>
+      </c>
+      <c r="H33">
+        <v>-0.03470660637290475</v>
+      </c>
+      <c r="I33">
+        <v>-0.06767281561863264</v>
+      </c>
+      <c r="J33">
+        <v>-0.007891697331274783</v>
+      </c>
+      <c r="K33">
+        <v>-0.03592624780382293</v>
+      </c>
+      <c r="L33">
+        <v>0.06803210150987758</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.06278366534899402</v>
+        <v>0.0692719354848811</v>
       </c>
       <c r="C34">
-        <v>0.06216303576238258</v>
+        <v>0.05022034555276055</v>
       </c>
       <c r="D34">
-        <v>-0.03318524927471971</v>
+        <v>-0.01926380105803346</v>
       </c>
       <c r="E34">
-        <v>-0.02132270096617956</v>
+        <v>-0.009898136120674066</v>
       </c>
       <c r="F34">
-        <v>0.0316957406927863</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03462332398237201</v>
+      </c>
+      <c r="G34">
+        <v>0.05341724692233318</v>
+      </c>
+      <c r="H34">
+        <v>-0.02387394112987492</v>
+      </c>
+      <c r="I34">
+        <v>-0.05864567821834277</v>
+      </c>
+      <c r="J34">
+        <v>-0.04106719823984352</v>
+      </c>
+      <c r="K34">
+        <v>0.0383865757955719</v>
+      </c>
+      <c r="L34">
+        <v>0.04701999021387927</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04126832854804698</v>
+        <v>0.03469721593255797</v>
       </c>
       <c r="C35">
-        <v>0.01012066957776895</v>
+        <v>0.02153907373067488</v>
       </c>
       <c r="D35">
-        <v>-0.02120045916346453</v>
+        <v>-0.008534606342678431</v>
       </c>
       <c r="E35">
-        <v>-0.003219565357500579</v>
+        <v>0.007210211772079532</v>
       </c>
       <c r="F35">
-        <v>0.01165986967098311</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.01976011067748351</v>
+      </c>
+      <c r="G35">
+        <v>-0.008791197793793986</v>
+      </c>
+      <c r="H35">
+        <v>-0.02594787315465784</v>
+      </c>
+      <c r="I35">
+        <v>-0.06131308329105626</v>
+      </c>
+      <c r="J35">
+        <v>-0.02714235713806368</v>
+      </c>
+      <c r="K35">
+        <v>-0.02403023329156284</v>
+      </c>
+      <c r="L35">
+        <v>-0.02597389127921158</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03786750280533114</v>
+        <v>0.0336891679993072</v>
       </c>
       <c r="C36">
-        <v>0.009890892669300936</v>
+        <v>0.01226997159618883</v>
       </c>
       <c r="D36">
-        <v>-0.01461393060332661</v>
+        <v>0.005205218031120389</v>
       </c>
       <c r="E36">
-        <v>-0.03248909856870365</v>
+        <v>-0.02153381130945282</v>
       </c>
       <c r="F36">
-        <v>0.01872417450219208</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.03206596090705074</v>
+      </c>
+      <c r="G36">
+        <v>0.02872601386176746</v>
+      </c>
+      <c r="H36">
+        <v>-0.01122465856178711</v>
+      </c>
+      <c r="I36">
+        <v>-0.06649392565443805</v>
+      </c>
+      <c r="J36">
+        <v>-0.00419201854329462</v>
+      </c>
+      <c r="K36">
+        <v>-0.04425024679068115</v>
+      </c>
+      <c r="L36">
+        <v>0.005947690504584978</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.06894239888625293</v>
+        <v>0.05135716134685646</v>
       </c>
       <c r="C38">
-        <v>0.02246247431573678</v>
+        <v>0.04559368693892017</v>
       </c>
       <c r="D38">
-        <v>0.01475263362980956</v>
+        <v>0.03045028030907251</v>
       </c>
       <c r="E38">
-        <v>0.01598545148458062</v>
+        <v>-0.01686290634996542</v>
       </c>
       <c r="F38">
-        <v>0.05377513172165632</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.01328184751891203</v>
+      </c>
+      <c r="G38">
+        <v>-0.01183643775771896</v>
+      </c>
+      <c r="H38">
+        <v>-0.01521983867138626</v>
+      </c>
+      <c r="I38">
+        <v>0.1358327565486645</v>
+      </c>
+      <c r="J38">
+        <v>-0.01927466805272281</v>
+      </c>
+      <c r="K38">
+        <v>-0.0833081150357151</v>
+      </c>
+      <c r="L38">
+        <v>0.03794676511113457</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.09243934058961832</v>
+        <v>0.0968832263147917</v>
       </c>
       <c r="C39">
-        <v>0.04673271606356446</v>
+        <v>0.05478528600940206</v>
       </c>
       <c r="D39">
-        <v>-0.04270542713596306</v>
+        <v>-0.01807721506552945</v>
       </c>
       <c r="E39">
-        <v>-0.005289942847633431</v>
+        <v>-0.0146000023301684</v>
       </c>
       <c r="F39">
-        <v>0.0175511219684232</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.04209865564749458</v>
+      </c>
+      <c r="G39">
+        <v>0.0510246165022589</v>
+      </c>
+      <c r="H39">
+        <v>-0.002222475878798826</v>
+      </c>
+      <c r="I39">
+        <v>-0.06853152745333518</v>
+      </c>
+      <c r="J39">
+        <v>-0.1688017073107627</v>
+      </c>
+      <c r="K39">
+        <v>-0.01840063916630291</v>
+      </c>
+      <c r="L39">
+        <v>-0.02963593161580221</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.07161511101832296</v>
+        <v>0.04355767357025663</v>
       </c>
       <c r="C40">
-        <v>0.01275596276299074</v>
+        <v>0.04299129535092727</v>
       </c>
       <c r="D40">
-        <v>-0.02256097445323821</v>
+        <v>0.05709123052429242</v>
       </c>
       <c r="E40">
-        <v>-0.01368298305106172</v>
+        <v>0.001826323380937046</v>
       </c>
       <c r="F40">
-        <v>0.1005559660099546</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.03959993642468085</v>
+      </c>
+      <c r="G40">
+        <v>0.09312691560226197</v>
+      </c>
+      <c r="H40">
+        <v>0.1104229622056577</v>
+      </c>
+      <c r="I40">
+        <v>-0.06884139136712952</v>
+      </c>
+      <c r="J40">
+        <v>-0.2532491526854105</v>
+      </c>
+      <c r="K40">
+        <v>-0.1370351813192736</v>
+      </c>
+      <c r="L40">
+        <v>0.04027129700052778</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.05982054968319541</v>
+        <v>0.04698434333678059</v>
       </c>
       <c r="C41">
-        <v>0.02504103192114392</v>
+        <v>0.02955475958597224</v>
       </c>
       <c r="D41">
-        <v>-0.009567378696531126</v>
+        <v>-0.01117563726982855</v>
       </c>
       <c r="E41">
-        <v>0.007756782344517641</v>
+        <v>0.005293336309453067</v>
       </c>
       <c r="F41">
-        <v>0.008244925834652739</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.02056133367449836</v>
+      </c>
+      <c r="G41">
+        <v>0.02274981767028478</v>
+      </c>
+      <c r="H41">
+        <v>-0.02894965926066814</v>
+      </c>
+      <c r="I41">
+        <v>0.00136627359737997</v>
+      </c>
+      <c r="J41">
+        <v>-0.02872306885583528</v>
+      </c>
+      <c r="K41">
+        <v>-0.04813337713198593</v>
+      </c>
+      <c r="L41">
+        <v>0.02561510875681079</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.06418181555808004</v>
+        <v>0.06097946474481909</v>
       </c>
       <c r="C43">
-        <v>0.0148646325075587</v>
+        <v>0.03641312020419175</v>
       </c>
       <c r="D43">
-        <v>-0.01675976934870931</v>
+        <v>-0.005392138484065875</v>
       </c>
       <c r="E43">
-        <v>-0.01852168637229892</v>
+        <v>-0.02097835279000235</v>
       </c>
       <c r="F43">
-        <v>-0.003535335583653941</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01006178661431878</v>
+      </c>
+      <c r="G43">
+        <v>0.01207256029904701</v>
+      </c>
+      <c r="H43">
+        <v>-0.05221907561741638</v>
+      </c>
+      <c r="I43">
+        <v>-0.008258962059623445</v>
+      </c>
+      <c r="J43">
+        <v>-0.01779406814444083</v>
+      </c>
+      <c r="K43">
+        <v>-0.01837478569910134</v>
+      </c>
+      <c r="L43">
+        <v>0.02814605320044562</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.08838738262222945</v>
+        <v>0.09116938817918042</v>
       </c>
       <c r="C44">
-        <v>0.04768783591507757</v>
+        <v>0.05540975778413227</v>
       </c>
       <c r="D44">
-        <v>-0.00819863973605294</v>
+        <v>0.01978753243372529</v>
       </c>
       <c r="E44">
-        <v>-0.08936981238446964</v>
+        <v>-0.1050475427530338</v>
       </c>
       <c r="F44">
-        <v>0.1072257960202019</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.07641743924657249</v>
+      </c>
+      <c r="G44">
+        <v>0.08331336311239869</v>
+      </c>
+      <c r="H44">
+        <v>-0.0368732593061194</v>
+      </c>
+      <c r="I44">
+        <v>-0.1149291392073107</v>
+      </c>
+      <c r="J44">
+        <v>-0.1000763332257375</v>
+      </c>
+      <c r="K44">
+        <v>-0.02497656628122922</v>
+      </c>
+      <c r="L44">
+        <v>0.03972821701306485</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.03310014843932255</v>
+        <v>0.0468603707148435</v>
       </c>
       <c r="C46">
-        <v>0.03287372095828209</v>
+        <v>0.03326597865870482</v>
       </c>
       <c r="D46">
-        <v>-0.01808526103451525</v>
+        <v>-0.008594156573306222</v>
       </c>
       <c r="E46">
-        <v>-0.01777151959831292</v>
+        <v>-0.02569686012786369</v>
       </c>
       <c r="F46">
-        <v>0.04685335037161421</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04480371089400524</v>
+      </c>
+      <c r="G46">
+        <v>0.009206226365835148</v>
+      </c>
+      <c r="H46">
+        <v>-0.0183697064824016</v>
+      </c>
+      <c r="I46">
+        <v>-0.03681391869820321</v>
+      </c>
+      <c r="J46">
+        <v>0.02540053418779272</v>
+      </c>
+      <c r="K46">
+        <v>-0.05011464342741074</v>
+      </c>
+      <c r="L46">
+        <v>0.04787028793866818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.03921165430178769</v>
+        <v>0.04705804453513953</v>
       </c>
       <c r="C47">
-        <v>-0.005183972814495965</v>
+        <v>0.01176843729521369</v>
       </c>
       <c r="D47">
-        <v>-0.01008646435121785</v>
+        <v>0.01250873758142491</v>
       </c>
       <c r="E47">
-        <v>-0.01667498081456943</v>
+        <v>-0.003733126899098377</v>
       </c>
       <c r="F47">
-        <v>0.06794269641073035</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.04114799157166783</v>
+      </c>
+      <c r="G47">
+        <v>-0.007005392722948559</v>
+      </c>
+      <c r="H47">
+        <v>-0.0205045850053592</v>
+      </c>
+      <c r="I47">
+        <v>-0.03177899396514287</v>
+      </c>
+      <c r="J47">
+        <v>0.01883469984371886</v>
+      </c>
+      <c r="K47">
+        <v>-0.002431822034145762</v>
+      </c>
+      <c r="L47">
+        <v>-0.002246454042305876</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04993860634373926</v>
+        <v>0.04455118020352106</v>
       </c>
       <c r="C48">
-        <v>0.01197527973850332</v>
+        <v>0.01266066151824144</v>
       </c>
       <c r="D48">
-        <v>-0.02767261760062822</v>
+        <v>0.01156297705084433</v>
       </c>
       <c r="E48">
-        <v>-0.02522459000829067</v>
+        <v>-0.007924643154811013</v>
       </c>
       <c r="F48">
-        <v>0.04135279843640226</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.04192724848294024</v>
+      </c>
+      <c r="G48">
+        <v>0.007533404673319966</v>
+      </c>
+      <c r="H48">
+        <v>0.007808054582425046</v>
+      </c>
+      <c r="I48">
+        <v>-0.05547472700775344</v>
+      </c>
+      <c r="J48">
+        <v>0.006466621639986051</v>
+      </c>
+      <c r="K48">
+        <v>-0.04640324953476659</v>
+      </c>
+      <c r="L48">
+        <v>-0.03153143258997709</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.1479205802627452</v>
+        <v>0.2059548070697327</v>
       </c>
       <c r="C49">
-        <v>0.01822657180450197</v>
+        <v>0.02424220066795766</v>
       </c>
       <c r="D49">
-        <v>-0.09127778770565827</v>
+        <v>-0.1835527628072414</v>
       </c>
       <c r="E49">
-        <v>-0.02772381347561069</v>
+        <v>0.02604402231199326</v>
       </c>
       <c r="F49">
-        <v>-0.1478254978691174</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>0.05485750942847371</v>
+      </c>
+      <c r="G49">
+        <v>-0.1638180708880567</v>
+      </c>
+      <c r="H49">
+        <v>0.1824401894968579</v>
+      </c>
+      <c r="I49">
+        <v>0.1220654262349112</v>
+      </c>
+      <c r="J49">
+        <v>-0.1222128705479297</v>
+      </c>
+      <c r="K49">
+        <v>0.1656105038010435</v>
+      </c>
+      <c r="L49">
+        <v>0.2035038131519304</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.06684427620045047</v>
+        <v>0.05577386858461095</v>
       </c>
       <c r="C50">
-        <v>0.02104717895647712</v>
+        <v>0.03800861506104487</v>
       </c>
       <c r="D50">
-        <v>-0.03949619469436173</v>
+        <v>-0.006705325785975751</v>
       </c>
       <c r="E50">
-        <v>-0.002386589731512835</v>
+        <v>0.01053300044717681</v>
       </c>
       <c r="F50">
-        <v>0.02390243043628561</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.0401906353991543</v>
+      </c>
+      <c r="G50">
+        <v>0.01985812258070149</v>
+      </c>
+      <c r="H50">
+        <v>-0.05297608876101694</v>
+      </c>
+      <c r="I50">
+        <v>-0.03856352833030666</v>
+      </c>
+      <c r="J50">
+        <v>0.03687614890100108</v>
+      </c>
+      <c r="K50">
+        <v>-0.02995243395263635</v>
+      </c>
+      <c r="L50">
+        <v>-0.0419610307196986</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.0375932222071301</v>
+        <v>0.040087058774181</v>
       </c>
       <c r="C51">
-        <v>0.0009372914888790675</v>
+        <v>0.00191004380835491</v>
       </c>
       <c r="D51">
-        <v>0.0134161512639469</v>
+        <v>0.009035828452852364</v>
       </c>
       <c r="E51">
-        <v>0.0006147342894756779</v>
+        <v>-0.02066839342864348</v>
       </c>
       <c r="F51">
-        <v>0.0008774606614422091</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03393120064509204</v>
+      </c>
+      <c r="G51">
+        <v>-0.01598001757073337</v>
+      </c>
+      <c r="H51">
+        <v>0.01873840151572129</v>
+      </c>
+      <c r="I51">
+        <v>0.01067002545633128</v>
+      </c>
+      <c r="J51">
+        <v>-0.0481581810670085</v>
+      </c>
+      <c r="K51">
+        <v>0.06351978123338804</v>
+      </c>
+      <c r="L51">
+        <v>0.03467706513318615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1523127899255948</v>
+        <v>0.1558777857147689</v>
       </c>
       <c r="C53">
-        <v>-0.03057757342954447</v>
+        <v>0.01342964641120258</v>
       </c>
       <c r="D53">
-        <v>-0.07486469650342821</v>
+        <v>-0.07074402935555581</v>
       </c>
       <c r="E53">
-        <v>-0.001890648213525552</v>
+        <v>0.01700540553401042</v>
       </c>
       <c r="F53">
-        <v>-0.03712675006375098</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.002044583818785898</v>
+      </c>
+      <c r="G53">
+        <v>-0.01814622580792608</v>
+      </c>
+      <c r="H53">
+        <v>-0.2397052114796657</v>
+      </c>
+      <c r="I53">
+        <v>0.06110810685951269</v>
+      </c>
+      <c r="J53">
+        <v>0.04232340022601518</v>
+      </c>
+      <c r="K53">
+        <v>0.07005554612975116</v>
+      </c>
+      <c r="L53">
+        <v>-0.03894140784671853</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.06282856704607043</v>
+        <v>0.061736259989988</v>
       </c>
       <c r="C54">
-        <v>0.01546401050908239</v>
+        <v>0.01349063847844931</v>
       </c>
       <c r="D54">
-        <v>0.003371219881077151</v>
+        <v>0.02114962187460707</v>
       </c>
       <c r="E54">
-        <v>-0.04055621057470059</v>
+        <v>-0.03602323166546291</v>
       </c>
       <c r="F54">
-        <v>0.06518265406049256</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.05496185499118664</v>
+      </c>
+      <c r="G54">
+        <v>0.06738940354927522</v>
+      </c>
+      <c r="H54">
+        <v>-0.01126666286205951</v>
+      </c>
+      <c r="I54">
+        <v>-0.1110982772612085</v>
+      </c>
+      <c r="J54">
+        <v>0.01594686033866283</v>
+      </c>
+      <c r="K54">
+        <v>-0.07101207525245506</v>
+      </c>
+      <c r="L54">
+        <v>0.007129765931926938</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.09509704318889677</v>
+        <v>0.09599190189794991</v>
       </c>
       <c r="C55">
-        <v>-0.005167223743701518</v>
+        <v>0.02483256682363263</v>
       </c>
       <c r="D55">
-        <v>-0.05530923136108106</v>
+        <v>-0.04760123178462727</v>
       </c>
       <c r="E55">
-        <v>-0.02087039536344971</v>
+        <v>-0.008407279119460319</v>
       </c>
       <c r="F55">
-        <v>0.0213509924880964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01551260845316214</v>
+      </c>
+      <c r="G55">
+        <v>0.035104498891362</v>
+      </c>
+      <c r="H55">
+        <v>-0.1773440776208655</v>
+      </c>
+      <c r="I55">
+        <v>-0.004358030421842215</v>
+      </c>
+      <c r="J55">
+        <v>0.02414130604976358</v>
+      </c>
+      <c r="K55">
+        <v>0.05808479488949823</v>
+      </c>
+      <c r="L55">
+        <v>-0.01341855649687676</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1516903852812974</v>
+        <v>0.1516546859430071</v>
       </c>
       <c r="C56">
-        <v>-0.03107717310831072</v>
+        <v>0.03191826664874809</v>
       </c>
       <c r="D56">
-        <v>-0.08888137728766389</v>
+        <v>-0.07120621696645883</v>
       </c>
       <c r="E56">
-        <v>-0.04144452540963311</v>
+        <v>-0.004818026484076225</v>
       </c>
       <c r="F56">
-        <v>-0.05256402477478749</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.01586597029921443</v>
+      </c>
+      <c r="G56">
+        <v>0.001434828910684847</v>
+      </c>
+      <c r="H56">
+        <v>-0.2424248640693661</v>
+      </c>
+      <c r="I56">
+        <v>0.0784233753709381</v>
+      </c>
+      <c r="J56">
+        <v>0.02716279191497014</v>
+      </c>
+      <c r="K56">
+        <v>0.03032802445618546</v>
+      </c>
+      <c r="L56">
+        <v>-0.07699024056850362</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.1120827637410337</v>
+        <v>0.07398866435228081</v>
       </c>
       <c r="C58">
-        <v>0.0578922533863144</v>
+        <v>0.05110210637899528</v>
       </c>
       <c r="D58">
-        <v>0.1553539658409686</v>
+        <v>0.1751215418172669</v>
       </c>
       <c r="E58">
-        <v>-0.1207168852369461</v>
+        <v>-0.08856520693424744</v>
       </c>
       <c r="F58">
-        <v>0.2539847702092596</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.05596440544963031</v>
+      </c>
+      <c r="G58">
+        <v>-0.09575138129842641</v>
+      </c>
+      <c r="H58">
+        <v>0.1633975603256556</v>
+      </c>
+      <c r="I58">
+        <v>-0.5375198141523316</v>
+      </c>
+      <c r="J58">
+        <v>-0.09127663408348355</v>
+      </c>
+      <c r="K58">
+        <v>0.2272876860069141</v>
+      </c>
+      <c r="L58">
+        <v>-0.3911953795590802</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1440572653591677</v>
+        <v>0.1794055085237328</v>
       </c>
       <c r="C59">
-        <v>-0.4368025085582251</v>
+        <v>-0.3498695262966267</v>
       </c>
       <c r="D59">
-        <v>0.05529114705821812</v>
+        <v>0.02938235738014141</v>
       </c>
       <c r="E59">
-        <v>-0.08605583926087979</v>
+        <v>-0.03287176235475644</v>
       </c>
       <c r="F59">
-        <v>0.05657977125049357</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.036921713119857</v>
+      </c>
+      <c r="G59">
+        <v>0.02747166003673568</v>
+      </c>
+      <c r="H59">
+        <v>-0.03622767125379812</v>
+      </c>
+      <c r="I59">
+        <v>0.05693345426740178</v>
+      </c>
+      <c r="J59">
+        <v>-0.04881699180413852</v>
+      </c>
+      <c r="K59">
+        <v>-0.004500609613283946</v>
+      </c>
+      <c r="L59">
+        <v>-0.005261979167085524</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2218419109935593</v>
+        <v>0.2458450329457154</v>
       </c>
       <c r="C60">
-        <v>-0.01361597267719102</v>
+        <v>0.04803749613077035</v>
       </c>
       <c r="D60">
-        <v>-0.09104795511593536</v>
+        <v>-0.1354618987545574</v>
       </c>
       <c r="E60">
-        <v>-0.05173428950330194</v>
+        <v>-0.01280021051642518</v>
       </c>
       <c r="F60">
-        <v>-0.04489404338863132</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.03677677029696166</v>
+      </c>
+      <c r="G60">
+        <v>-0.02970174229427427</v>
+      </c>
+      <c r="H60">
+        <v>0.107276396714338</v>
+      </c>
+      <c r="I60">
+        <v>0.09860877016635608</v>
+      </c>
+      <c r="J60">
+        <v>0.07680690796387497</v>
+      </c>
+      <c r="K60">
+        <v>0.1533569573610509</v>
+      </c>
+      <c r="L60">
+        <v>0.06206195742963288</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.07967553873431647</v>
+        <v>0.08805608998432236</v>
       </c>
       <c r="C61">
-        <v>0.02334333587667813</v>
+        <v>0.0392806272676287</v>
       </c>
       <c r="D61">
-        <v>-0.03452827374429197</v>
+        <v>-0.02099345458256557</v>
       </c>
       <c r="E61">
-        <v>-0.009172565076295866</v>
+        <v>-0.02208081703088085</v>
       </c>
       <c r="F61">
-        <v>0.007665202470154954</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03287169089656451</v>
+      </c>
+      <c r="G61">
+        <v>0.06172370312039482</v>
+      </c>
+      <c r="H61">
+        <v>-0.05304381094142021</v>
+      </c>
+      <c r="I61">
+        <v>-0.03289774700037799</v>
+      </c>
+      <c r="J61">
+        <v>-0.09090189622224891</v>
+      </c>
+      <c r="K61">
+        <v>-0.01711181157772682</v>
+      </c>
+      <c r="L61">
+        <v>0.009055874790531803</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1487495340833485</v>
+        <v>0.1462699730097208</v>
       </c>
       <c r="C62">
-        <v>-0.01906334131059775</v>
+        <v>0.03882973757021305</v>
       </c>
       <c r="D62">
-        <v>-0.04599646935693004</v>
+        <v>-0.05429140795234264</v>
       </c>
       <c r="E62">
-        <v>0.0203140819113293</v>
+        <v>0.04182685144228999</v>
       </c>
       <c r="F62">
-        <v>-0.07526556718773851</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.01569192225610218</v>
+      </c>
+      <c r="G62">
+        <v>0.02502489012969919</v>
+      </c>
+      <c r="H62">
+        <v>-0.2355468463351889</v>
+      </c>
+      <c r="I62">
+        <v>0.06433064382293117</v>
+      </c>
+      <c r="J62">
+        <v>0.08935163372547313</v>
+      </c>
+      <c r="K62">
+        <v>0.0387656490539044</v>
+      </c>
+      <c r="L62">
+        <v>-0.05109969738692901</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.06018741863440542</v>
+        <v>0.05302482097485098</v>
       </c>
       <c r="C63">
-        <v>0.02809130194498252</v>
+        <v>0.0240500169537927</v>
       </c>
       <c r="D63">
-        <v>-0.02059858407218941</v>
+        <v>-0.001106891864303434</v>
       </c>
       <c r="E63">
-        <v>-0.01471737725702676</v>
+        <v>0.003187633132828239</v>
       </c>
       <c r="F63">
-        <v>0.004975463481029855</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03000889594584754</v>
+      </c>
+      <c r="G63">
+        <v>0.04545075837385688</v>
+      </c>
+      <c r="H63">
+        <v>-0.01644938970713625</v>
+      </c>
+      <c r="I63">
+        <v>-0.0528537645161869</v>
+      </c>
+      <c r="J63">
+        <v>0.0295251987737019</v>
+      </c>
+      <c r="K63">
+        <v>-0.03701693730432138</v>
+      </c>
+      <c r="L63">
+        <v>-0.01318490050916933</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.09744306419608668</v>
+        <v>0.1041661697183159</v>
       </c>
       <c r="C64">
-        <v>-0.007844365142009117</v>
+        <v>0.0168261673491624</v>
       </c>
       <c r="D64">
-        <v>-0.06220992804785893</v>
+        <v>-0.04318781037795313</v>
       </c>
       <c r="E64">
-        <v>-0.03387101941943949</v>
+        <v>-0.03223789494603843</v>
       </c>
       <c r="F64">
-        <v>0.04899860604936176</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.07258920814879813</v>
+      </c>
+      <c r="G64">
+        <v>0.04686248161979645</v>
+      </c>
+      <c r="H64">
+        <v>0.02691857504948264</v>
+      </c>
+      <c r="I64">
+        <v>-0.02968073086610724</v>
+      </c>
+      <c r="J64">
+        <v>-0.05397835216859391</v>
+      </c>
+      <c r="K64">
+        <v>-0.04041419746913857</v>
+      </c>
+      <c r="L64">
+        <v>0.01149084368626464</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1241183756012566</v>
+        <v>0.132492792893542</v>
       </c>
       <c r="C65">
-        <v>0.03196848842657071</v>
+        <v>0.02293932784544503</v>
       </c>
       <c r="D65">
-        <v>-0.05912442651926469</v>
+        <v>-0.06365274639934559</v>
       </c>
       <c r="E65">
-        <v>-0.0556201870505187</v>
+        <v>0.005620053398033715</v>
       </c>
       <c r="F65">
-        <v>0.08254931203258123</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.065765956273121</v>
+      </c>
+      <c r="G65">
+        <v>0.09356017564510767</v>
+      </c>
+      <c r="H65">
+        <v>0.1877094624283628</v>
+      </c>
+      <c r="I65">
+        <v>-0.2217154113711962</v>
+      </c>
+      <c r="J65">
+        <v>0.61919004504248</v>
+      </c>
+      <c r="K65">
+        <v>0.1211596233716262</v>
+      </c>
+      <c r="L65">
+        <v>-0.01190988176029098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1571145747915096</v>
+        <v>0.1420565437188276</v>
       </c>
       <c r="C66">
-        <v>0.07862200533274201</v>
+        <v>0.09954557327286427</v>
       </c>
       <c r="D66">
-        <v>-0.06833175663717715</v>
+        <v>-0.0266353791139818</v>
       </c>
       <c r="E66">
-        <v>-0.01696780340564874</v>
+        <v>-0.007146199532349752</v>
       </c>
       <c r="F66">
-        <v>-0.02690271960280706</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.04210585573258969</v>
+      </c>
+      <c r="G66">
+        <v>0.08926700963698689</v>
+      </c>
+      <c r="H66">
+        <v>-0.02041705278115987</v>
+      </c>
+      <c r="I66">
+        <v>-0.05267694516714046</v>
+      </c>
+      <c r="J66">
+        <v>-0.2508365415760447</v>
+      </c>
+      <c r="K66">
+        <v>-0.08396802122941661</v>
+      </c>
+      <c r="L66">
+        <v>0.02647237829450531</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.0994278092782063</v>
+        <v>0.098896815401956</v>
       </c>
       <c r="C67">
-        <v>0.02585652318949326</v>
+        <v>0.05004056603668357</v>
       </c>
       <c r="D67">
-        <v>0.01821032861018075</v>
+        <v>0.01411398037923652</v>
       </c>
       <c r="E67">
-        <v>-0.004948353843391491</v>
+        <v>-0.04437222548284226</v>
       </c>
       <c r="F67">
-        <v>0.009912204439866575</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.02822881553194867</v>
+      </c>
+      <c r="G67">
+        <v>0.01398325835213018</v>
+      </c>
+      <c r="H67">
+        <v>-0.005855261863524766</v>
+      </c>
+      <c r="I67">
+        <v>0.1561752607411537</v>
+      </c>
+      <c r="J67">
+        <v>-0.04777022322500499</v>
+      </c>
+      <c r="K67">
+        <v>-0.0502184074152408</v>
+      </c>
+      <c r="L67">
+        <v>0.06877700083207958</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.05051278469924166</v>
+        <v>0.08491229964226031</v>
       </c>
       <c r="C68">
-        <v>-0.2566675799790323</v>
+        <v>-0.2755692181671096</v>
       </c>
       <c r="D68">
-        <v>0.03522128064745798</v>
+        <v>0.03924953932169311</v>
       </c>
       <c r="E68">
-        <v>-0.04216167620258639</v>
+        <v>-0.02648668032357717</v>
       </c>
       <c r="F68">
-        <v>0.04254241722305947</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02674259048891055</v>
+      </c>
+      <c r="G68">
+        <v>-0.01422168838591939</v>
+      </c>
+      <c r="H68">
+        <v>-0.0172868505086454</v>
+      </c>
+      <c r="I68">
+        <v>-0.04347150029126363</v>
+      </c>
+      <c r="J68">
+        <v>0.04800836029967281</v>
+      </c>
+      <c r="K68">
+        <v>-0.01263566286024175</v>
+      </c>
+      <c r="L68">
+        <v>-0.03261841701797946</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.06724356606067773</v>
+        <v>0.05601708126067356</v>
       </c>
       <c r="C69">
-        <v>0.01297558884273023</v>
+        <v>0.01844058002919909</v>
       </c>
       <c r="D69">
-        <v>-0.00134589212574818</v>
+        <v>0.01420401038344591</v>
       </c>
       <c r="E69">
-        <v>-0.01852326625025839</v>
+        <v>0.003463450472400945</v>
       </c>
       <c r="F69">
-        <v>0.008267516288829607</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.001047540304073148</v>
+      </c>
+      <c r="G69">
+        <v>0.01901071288103472</v>
+      </c>
+      <c r="H69">
+        <v>-0.03550049052806741</v>
+      </c>
+      <c r="I69">
+        <v>-0.00850745611880686</v>
+      </c>
+      <c r="J69">
+        <v>-0.01013981265674806</v>
+      </c>
+      <c r="K69">
+        <v>-7.81414625188177e-05</v>
+      </c>
+      <c r="L69">
+        <v>-0.009403230264804587</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.01574742973133606</v>
+        <v>0.04112853025766931</v>
       </c>
       <c r="C70">
-        <v>-0.01313277870550755</v>
+        <v>0.005780413324623064</v>
       </c>
       <c r="D70">
-        <v>0.004980928279151794</v>
+        <v>-0.0220547447648791</v>
       </c>
       <c r="E70">
-        <v>0.01433520110143117</v>
+        <v>0.007990768168204531</v>
       </c>
       <c r="F70">
-        <v>-0.00819266261306241</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.05172935410950026</v>
+      </c>
+      <c r="G70">
+        <v>0.01191862676280035</v>
+      </c>
+      <c r="H70">
+        <v>0.02772780633233261</v>
+      </c>
+      <c r="I70">
+        <v>0.03476492108390801</v>
+      </c>
+      <c r="J70">
+        <v>-0.01998857909285476</v>
+      </c>
+      <c r="K70">
+        <v>-0.1399960346852542</v>
+      </c>
+      <c r="L70">
+        <v>0.09597428261728698</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.04746899382585298</v>
+        <v>0.09497077834785858</v>
       </c>
       <c r="C71">
-        <v>-0.2836783498099363</v>
+        <v>-0.2956789245030465</v>
       </c>
       <c r="D71">
-        <v>0.03983944464620343</v>
+        <v>0.02699045118930108</v>
       </c>
       <c r="E71">
-        <v>-0.07191142996761121</v>
+        <v>-0.04538951324907048</v>
       </c>
       <c r="F71">
-        <v>0.03139225573116119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.02655228094327798</v>
+      </c>
+      <c r="G71">
+        <v>0.0001046229693153259</v>
+      </c>
+      <c r="H71">
+        <v>-0.01120006983244082</v>
+      </c>
+      <c r="I71">
+        <v>-0.02260704214287356</v>
+      </c>
+      <c r="J71">
+        <v>0.01057026422350522</v>
+      </c>
+      <c r="K71">
+        <v>-0.003934359111420978</v>
+      </c>
+      <c r="L71">
+        <v>0.0122106922171176</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1460541161189716</v>
+        <v>0.1361680217460449</v>
       </c>
       <c r="C72">
-        <v>-0.04061569284806169</v>
+        <v>0.0005444127488983555</v>
       </c>
       <c r="D72">
-        <v>-0.04091208467456253</v>
+        <v>0.01881419145634751</v>
       </c>
       <c r="E72">
-        <v>0.236958933498961</v>
+        <v>0.17278319980965</v>
       </c>
       <c r="F72">
-        <v>0.03161663119231675</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.01038231094450801</v>
+      </c>
+      <c r="G72">
+        <v>0.1242637971311782</v>
+      </c>
+      <c r="H72">
+        <v>-0.01403904465317267</v>
+      </c>
+      <c r="I72">
+        <v>0.01050712027120141</v>
+      </c>
+      <c r="J72">
+        <v>0.09020104909715317</v>
+      </c>
+      <c r="K72">
+        <v>0.1264006531292423</v>
+      </c>
+      <c r="L72">
+        <v>0.09649757129288075</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2481539169355406</v>
+        <v>0.2413129071118266</v>
       </c>
       <c r="C73">
-        <v>0.04723202921236858</v>
+        <v>0.1038038608108961</v>
       </c>
       <c r="D73">
-        <v>-0.104299643463649</v>
+        <v>-0.2201287427242668</v>
       </c>
       <c r="E73">
-        <v>-0.08890716685002158</v>
+        <v>-0.0341696449357471</v>
       </c>
       <c r="F73">
-        <v>-0.1992905202680329</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.201626342575067</v>
+      </c>
+      <c r="G73">
+        <v>-0.2582841221924262</v>
+      </c>
+      <c r="H73">
+        <v>0.2908411274504102</v>
+      </c>
+      <c r="I73">
+        <v>0.1136681488444315</v>
+      </c>
+      <c r="J73">
+        <v>-0.2365765832364268</v>
+      </c>
+      <c r="K73">
+        <v>0.4518588205602528</v>
+      </c>
+      <c r="L73">
+        <v>-0.1215152092683619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.08719778684665616</v>
+        <v>0.09309434396736002</v>
       </c>
       <c r="C74">
-        <v>-0.01698988019760412</v>
+        <v>0.03291248701112283</v>
       </c>
       <c r="D74">
-        <v>-0.06117211569280486</v>
+        <v>-0.04513143863924144</v>
       </c>
       <c r="E74">
-        <v>-0.007596157875339086</v>
+        <v>0.01399413469064767</v>
       </c>
       <c r="F74">
-        <v>0.01177925239970079</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.02342379911012961</v>
+      </c>
+      <c r="G74">
+        <v>-0.02526519848220039</v>
+      </c>
+      <c r="H74">
+        <v>-0.1438272052589179</v>
+      </c>
+      <c r="I74">
+        <v>0.008627802908958921</v>
+      </c>
+      <c r="J74">
+        <v>-0.01814795095040087</v>
+      </c>
+      <c r="K74">
+        <v>0.06074811028431561</v>
+      </c>
+      <c r="L74">
+        <v>-0.04064367572590704</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.1212039230239682</v>
+        <v>0.1045780407795656</v>
       </c>
       <c r="C75">
-        <v>-0.002163158319581131</v>
+        <v>0.03059308979527332</v>
       </c>
       <c r="D75">
-        <v>-0.001057554442650746</v>
+        <v>0.0110761177231436</v>
       </c>
       <c r="E75">
-        <v>-0.02229890560259961</v>
+        <v>0.003344498462904139</v>
       </c>
       <c r="F75">
-        <v>-0.0295173661954682</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.03449075326837889</v>
+      </c>
+      <c r="G75">
+        <v>-0.01342799896979134</v>
+      </c>
+      <c r="H75">
+        <v>-0.1321430625802049</v>
+      </c>
+      <c r="I75">
+        <v>0.02289822376658673</v>
+      </c>
+      <c r="J75">
+        <v>0.04599534739454517</v>
+      </c>
+      <c r="K75">
+        <v>0.02822889999355439</v>
+      </c>
+      <c r="L75">
+        <v>-0.05360335722114658</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1392199855808407</v>
+        <v>0.1244009865265191</v>
       </c>
       <c r="C76">
-        <v>-0.009504909571622578</v>
+        <v>0.05164659997467096</v>
       </c>
       <c r="D76">
-        <v>-0.07428768865987972</v>
+        <v>-0.06036056665931332</v>
       </c>
       <c r="E76">
-        <v>-0.02077659229232393</v>
+        <v>-0.005056776069520467</v>
       </c>
       <c r="F76">
-        <v>0.008282638881488237</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.02247662068141519</v>
+      </c>
+      <c r="G76">
+        <v>-0.009299023683213758</v>
+      </c>
+      <c r="H76">
+        <v>-0.2569076334112695</v>
+      </c>
+      <c r="I76">
+        <v>0.04618278181200128</v>
+      </c>
+      <c r="J76">
+        <v>0.05110132888308605</v>
+      </c>
+      <c r="K76">
+        <v>0.04512374544397458</v>
+      </c>
+      <c r="L76">
+        <v>-0.1389835866425489</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.1265205800359375</v>
+        <v>0.08800866927434903</v>
       </c>
       <c r="C77">
-        <v>0.04079852880620177</v>
+        <v>0.03155911385533521</v>
       </c>
       <c r="D77">
-        <v>0.1038679341711042</v>
+        <v>0.1568610470674673</v>
       </c>
       <c r="E77">
-        <v>-0.02532290341403661</v>
+        <v>-0.1195818568321652</v>
       </c>
       <c r="F77">
-        <v>0.3315978944582707</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.0205519432375238</v>
+      </c>
+      <c r="G77">
+        <v>0.6874547759804439</v>
+      </c>
+      <c r="H77">
+        <v>0.2643788112811489</v>
+      </c>
+      <c r="I77">
+        <v>0.4284239690003226</v>
+      </c>
+      <c r="J77">
+        <v>-0.0175857758008577</v>
+      </c>
+      <c r="K77">
+        <v>0.07896489017221874</v>
+      </c>
+      <c r="L77">
+        <v>-0.2430845037451861</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.1248341744356034</v>
+        <v>0.1629074986664129</v>
       </c>
       <c r="C78">
-        <v>0.07107478701177285</v>
+        <v>0.08207895285846044</v>
       </c>
       <c r="D78">
-        <v>-0.04347834391874263</v>
+        <v>0.02630376107527585</v>
       </c>
       <c r="E78">
-        <v>-0.01428814911472644</v>
+        <v>-0.08893774402400463</v>
       </c>
       <c r="F78">
-        <v>0.08877286987794926</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.1445848018785535</v>
+      </c>
+      <c r="G78">
+        <v>0.03124130739865634</v>
+      </c>
+      <c r="H78">
+        <v>0.09234259334860841</v>
+      </c>
+      <c r="I78">
+        <v>-0.03620829397396167</v>
+      </c>
+      <c r="J78">
+        <v>-0.01422840100109526</v>
+      </c>
+      <c r="K78">
+        <v>0.08457832534682255</v>
+      </c>
+      <c r="L78">
+        <v>0.5702111617173036</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1492267781806236</v>
+        <v>0.1434243281289355</v>
       </c>
       <c r="C79">
-        <v>0.01827638712688481</v>
+        <v>0.04428179298102005</v>
       </c>
       <c r="D79">
-        <v>-0.0725089669085414</v>
+        <v>-0.04701829223509972</v>
       </c>
       <c r="E79">
-        <v>-0.004324384299400619</v>
+        <v>0.003461839649780734</v>
       </c>
       <c r="F79">
-        <v>-0.05896637200289404</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.01724249865464996</v>
+      </c>
+      <c r="G79">
+        <v>0.02851728303426384</v>
+      </c>
+      <c r="H79">
+        <v>-0.1902518812482168</v>
+      </c>
+      <c r="I79">
+        <v>0.05716655225588668</v>
+      </c>
+      <c r="J79">
+        <v>0.06582307337603857</v>
+      </c>
+      <c r="K79">
+        <v>0.03557707701167825</v>
+      </c>
+      <c r="L79">
+        <v>-0.05179773734847784</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.03890889989126079</v>
+        <v>0.04468555597351576</v>
       </c>
       <c r="C80">
-        <v>0.02449063248951301</v>
+        <v>0.01038080291290853</v>
       </c>
       <c r="D80">
-        <v>-0.01886385115825361</v>
+        <v>-0.0573704220350701</v>
       </c>
       <c r="E80">
-        <v>-0.004824746046391397</v>
+        <v>0.01368521736555006</v>
       </c>
       <c r="F80">
-        <v>-0.00237270621639973</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.02482332816297591</v>
+      </c>
+      <c r="G80">
+        <v>0.002340026089733721</v>
+      </c>
+      <c r="H80">
+        <v>0.03520947932268358</v>
+      </c>
+      <c r="I80">
+        <v>-0.07477015602234392</v>
+      </c>
+      <c r="J80">
+        <v>-0.04151352911145804</v>
+      </c>
+      <c r="K80">
+        <v>-0.03825994471526294</v>
+      </c>
+      <c r="L80">
+        <v>0.0643232018011532</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1363269098808164</v>
+        <v>0.1336089409267931</v>
       </c>
       <c r="C81">
-        <v>-0.002332547227868397</v>
+        <v>0.01781498306171556</v>
       </c>
       <c r="D81">
-        <v>-0.06123196865038849</v>
+        <v>-0.03818494957363092</v>
       </c>
       <c r="E81">
-        <v>-0.02972425733324723</v>
+        <v>0.004044037117056887</v>
       </c>
       <c r="F81">
-        <v>-0.04320734186979912</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.01777464368157617</v>
+      </c>
+      <c r="G81">
+        <v>-0.001037186752346301</v>
+      </c>
+      <c r="H81">
+        <v>-0.1485156331752148</v>
+      </c>
+      <c r="I81">
+        <v>0.02817611730987525</v>
+      </c>
+      <c r="J81">
+        <v>-0.02517596410786173</v>
+      </c>
+      <c r="K81">
+        <v>-0.0181922222054556</v>
+      </c>
+      <c r="L81">
+        <v>-0.04558229963641395</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1226287592682904</v>
+        <v>0.1257015004524071</v>
       </c>
       <c r="C82">
-        <v>0.01695717979226132</v>
+        <v>0.03080200251808662</v>
       </c>
       <c r="D82">
-        <v>-0.04049845909896924</v>
+        <v>-0.04501150694610417</v>
       </c>
       <c r="E82">
-        <v>-0.03874938235417229</v>
+        <v>0.007670671726692111</v>
       </c>
       <c r="F82">
-        <v>-0.05775309327214968</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.008726042240014274</v>
+      </c>
+      <c r="G82">
+        <v>-0.0144148939243071</v>
+      </c>
+      <c r="H82">
+        <v>-0.279689397770833</v>
+      </c>
+      <c r="I82">
+        <v>0.04849169147777346</v>
+      </c>
+      <c r="J82">
+        <v>-0.008977355797731679</v>
+      </c>
+      <c r="K82">
+        <v>-0.007603694147841165</v>
+      </c>
+      <c r="L82">
+        <v>-0.1045809795657127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.05520840465794589</v>
+        <v>0.07624309778232248</v>
       </c>
       <c r="C83">
-        <v>0.02104458340616836</v>
+        <v>0.03612156778771983</v>
       </c>
       <c r="D83">
-        <v>0.07426300924925527</v>
+        <v>0.01727731302525204</v>
       </c>
       <c r="E83">
-        <v>-0.01314128362035365</v>
+        <v>-0.01921727652962851</v>
       </c>
       <c r="F83">
-        <v>-0.08286076533052565</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.08925591967830838</v>
+      </c>
+      <c r="G83">
+        <v>-0.03250686911914952</v>
+      </c>
+      <c r="H83">
+        <v>0.05470968312568473</v>
+      </c>
+      <c r="I83">
+        <v>-0.0720524250807293</v>
+      </c>
+      <c r="J83">
+        <v>-0.03635186572989705</v>
+      </c>
+      <c r="K83">
+        <v>-0.06008331511466991</v>
+      </c>
+      <c r="L83">
+        <v>0.0779109854349183</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.05128104924842237</v>
+        <v>0.03182562031432207</v>
       </c>
       <c r="C84">
-        <v>0.01017140745348955</v>
+        <v>0.04364002816081035</v>
       </c>
       <c r="D84">
-        <v>-0.04851252321835612</v>
+        <v>0.009324821850422294</v>
       </c>
       <c r="E84">
-        <v>0.02100090650167867</v>
+        <v>0.03565558231159666</v>
       </c>
       <c r="F84">
-        <v>0.00638438724330046</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.05898190627221427</v>
+      </c>
+      <c r="G84">
+        <v>-0.04204423146331376</v>
+      </c>
+      <c r="H84">
+        <v>-0.01850206537581459</v>
+      </c>
+      <c r="I84">
+        <v>-0.0975020173004556</v>
+      </c>
+      <c r="J84">
+        <v>-0.03825364942759805</v>
+      </c>
+      <c r="K84">
+        <v>-0.109569741587448</v>
+      </c>
+      <c r="L84">
+        <v>0.04445323885013364</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.1112182997974373</v>
+        <v>0.1204571630395557</v>
       </c>
       <c r="C85">
-        <v>0.03453144506700866</v>
+        <v>0.03601405780881458</v>
       </c>
       <c r="D85">
-        <v>-0.0350081989794505</v>
+        <v>-0.03646087371852744</v>
       </c>
       <c r="E85">
-        <v>-0.05788758587141408</v>
+        <v>-0.03945619238396145</v>
       </c>
       <c r="F85">
-        <v>0.006509579946638267</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.01190654582219681</v>
+      </c>
+      <c r="G85">
+        <v>0.02108932958229338</v>
+      </c>
+      <c r="H85">
+        <v>-0.2008560108386799</v>
+      </c>
+      <c r="I85">
+        <v>0.03123460369109998</v>
+      </c>
+      <c r="J85">
+        <v>0.06072919188929578</v>
+      </c>
+      <c r="K85">
+        <v>0.03793330075920614</v>
+      </c>
+      <c r="L85">
+        <v>-0.03676610467547665</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.07598775366926398</v>
+        <v>0.06961303742725086</v>
       </c>
       <c r="C86">
-        <v>0.06697785693242317</v>
+        <v>0.03486525755424011</v>
       </c>
       <c r="D86">
-        <v>-0.02860121721259897</v>
+        <v>0.01329003305760018</v>
       </c>
       <c r="E86">
-        <v>-0.01132037874472886</v>
+        <v>-0.01918602528501489</v>
       </c>
       <c r="F86">
-        <v>0.02981299616379844</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03000005427995723</v>
+      </c>
+      <c r="G86">
+        <v>-0.01015716823302056</v>
+      </c>
+      <c r="H86">
+        <v>0.02406769553021036</v>
+      </c>
+      <c r="I86">
+        <v>0.00950293083888035</v>
+      </c>
+      <c r="J86">
+        <v>0.004235085551139563</v>
+      </c>
+      <c r="K86">
+        <v>-0.07769407505741108</v>
+      </c>
+      <c r="L86">
+        <v>0.3803012044704534</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.1250633495051245</v>
+        <v>0.1258533146291378</v>
       </c>
       <c r="C87">
-        <v>0.06377069257422095</v>
+        <v>0.07216136425941135</v>
       </c>
       <c r="D87">
-        <v>-0.06082595363969663</v>
+        <v>0.001408157246041665</v>
       </c>
       <c r="E87">
-        <v>-0.04353757700008219</v>
+        <v>-0.02562224894803453</v>
       </c>
       <c r="F87">
-        <v>0.1674277723228023</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.09366243106215956</v>
+      </c>
+      <c r="G87">
+        <v>0.1926807518497605</v>
+      </c>
+      <c r="H87">
+        <v>0.09690392139137333</v>
+      </c>
+      <c r="I87">
+        <v>0.06095462028082395</v>
+      </c>
+      <c r="J87">
+        <v>-0.02471059207369799</v>
+      </c>
+      <c r="K87">
+        <v>-0.0302342608175386</v>
+      </c>
+      <c r="L87">
+        <v>-0.08464259628121122</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.05827742553644654</v>
+        <v>0.06478160795962415</v>
       </c>
       <c r="C88">
-        <v>0.02222990457537724</v>
+        <v>0.03923231711841176</v>
       </c>
       <c r="D88">
-        <v>-0.02558493635701033</v>
+        <v>-0.03805229903816718</v>
       </c>
       <c r="E88">
-        <v>-0.01058395182654167</v>
+        <v>-0.005583936662577822</v>
       </c>
       <c r="F88">
-        <v>0.007487045018336006</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.005442248846930778</v>
+      </c>
+      <c r="G88">
+        <v>0.01990500019856875</v>
+      </c>
+      <c r="H88">
+        <v>-0.01481170229765828</v>
+      </c>
+      <c r="I88">
+        <v>-0.0320521625462085</v>
+      </c>
+      <c r="J88">
+        <v>-0.03828868189872059</v>
+      </c>
+      <c r="K88">
+        <v>-0.0330226857760787</v>
+      </c>
+      <c r="L88">
+        <v>0.02150846075905277</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.08606500709451327</v>
+        <v>0.1563520841014257</v>
       </c>
       <c r="C89">
-        <v>-0.3280983024187086</v>
+        <v>-0.373148435703841</v>
       </c>
       <c r="D89">
-        <v>0.04790734142337925</v>
+        <v>0.01685611873805705</v>
       </c>
       <c r="E89">
-        <v>-0.1125160232657637</v>
+        <v>-0.0886132705985312</v>
       </c>
       <c r="F89">
-        <v>0.06190137368323249</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.009459096038100242</v>
+      </c>
+      <c r="G89">
+        <v>-0.02572690853773644</v>
+      </c>
+      <c r="H89">
+        <v>0.01167484014158596</v>
+      </c>
+      <c r="I89">
+        <v>-0.06376913510551481</v>
+      </c>
+      <c r="J89">
+        <v>-0.08832393579049208</v>
+      </c>
+      <c r="K89">
+        <v>0.0128118436161834</v>
+      </c>
+      <c r="L89">
+        <v>-0.02003306678971666</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.07181913322103893</v>
+        <v>0.1085197301148918</v>
       </c>
       <c r="C90">
-        <v>-0.2831731318764268</v>
+        <v>-0.2789389973157445</v>
       </c>
       <c r="D90">
-        <v>0.06285893625779203</v>
+        <v>0.03484607645294527</v>
       </c>
       <c r="E90">
-        <v>-0.04937827018574896</v>
+        <v>-0.0390219903755897</v>
       </c>
       <c r="F90">
-        <v>0.06072045500856662</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.008185029098714268</v>
+      </c>
+      <c r="G90">
+        <v>0.03161803023368382</v>
+      </c>
+      <c r="H90">
+        <v>0.03824835239695122</v>
+      </c>
+      <c r="I90">
+        <v>-0.04661092084547301</v>
+      </c>
+      <c r="J90">
+        <v>-0.0624654790103149</v>
+      </c>
+      <c r="K90">
+        <v>0.003817252066638175</v>
+      </c>
+      <c r="L90">
+        <v>0.007443848098037809</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.1022036586453441</v>
+        <v>0.08736397941806222</v>
       </c>
       <c r="C91">
-        <v>0.01054601377639718</v>
+        <v>0.03887567596156526</v>
       </c>
       <c r="D91">
-        <v>-0.03499787359930485</v>
+        <v>-0.007508939596406991</v>
       </c>
       <c r="E91">
-        <v>-0.01535915573293121</v>
+        <v>-0.0002514639530596367</v>
       </c>
       <c r="F91">
-        <v>-0.007140079573377118</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.002351364675609604</v>
+      </c>
+      <c r="G91">
+        <v>-0.02949113742920545</v>
+      </c>
+      <c r="H91">
+        <v>-0.09014901095362279</v>
+      </c>
+      <c r="I91">
+        <v>0.01573889915974892</v>
+      </c>
+      <c r="J91">
+        <v>0.02515767376598836</v>
+      </c>
+      <c r="K91">
+        <v>0.03395311459987718</v>
+      </c>
+      <c r="L91">
+        <v>-0.08561147769158525</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.0550002348390202</v>
+        <v>0.110582664750183</v>
       </c>
       <c r="C92">
-        <v>-0.3343495076159318</v>
+        <v>-0.3366924554981648</v>
       </c>
       <c r="D92">
-        <v>0.02735038608887028</v>
+        <v>0.01843777548696576</v>
       </c>
       <c r="E92">
-        <v>-0.08139153262315617</v>
+        <v>-0.0493402118081035</v>
       </c>
       <c r="F92">
-        <v>0.02040937658918907</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.03107996457155778</v>
+      </c>
+      <c r="G92">
+        <v>-0.02088656290374656</v>
+      </c>
+      <c r="H92">
+        <v>-0.01874391832096902</v>
+      </c>
+      <c r="I92">
+        <v>-0.0202489377835182</v>
+      </c>
+      <c r="J92">
+        <v>-0.02328997643337227</v>
+      </c>
+      <c r="K92">
+        <v>-0.007081870423772898</v>
+      </c>
+      <c r="L92">
+        <v>0.01812885459141121</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.05660004787500761</v>
+        <v>0.1134427080803443</v>
       </c>
       <c r="C93">
-        <v>-0.2906719286534438</v>
+        <v>-0.3081715198784375</v>
       </c>
       <c r="D93">
-        <v>0.03227432221742957</v>
+        <v>0.006841291749453217</v>
       </c>
       <c r="E93">
-        <v>-0.04996719468150193</v>
+        <v>-0.02418498833475395</v>
       </c>
       <c r="F93">
-        <v>0.03805122498593375</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.00460026541728168</v>
+      </c>
+      <c r="G93">
+        <v>-0.00028303634072935</v>
+      </c>
+      <c r="H93">
+        <v>0.0152912320296426</v>
+      </c>
+      <c r="I93">
+        <v>-0.001926774944410207</v>
+      </c>
+      <c r="J93">
+        <v>0.002391348144087733</v>
+      </c>
+      <c r="K93">
+        <v>-0.03667685885345042</v>
+      </c>
+      <c r="L93">
+        <v>0.007405686285692879</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.1257934479727398</v>
+        <v>0.1197189200118919</v>
       </c>
       <c r="C94">
-        <v>0.05563567269407351</v>
+        <v>0.06032297090052219</v>
       </c>
       <c r="D94">
-        <v>-0.03311649877298669</v>
+        <v>-0.009074016899770783</v>
       </c>
       <c r="E94">
-        <v>-0.033106007048978</v>
+        <v>-0.02523869371070266</v>
       </c>
       <c r="F94">
-        <v>-0.0202224397542909</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.005702463155434546</v>
+      </c>
+      <c r="G94">
+        <v>-0.05482780697984642</v>
+      </c>
+      <c r="H94">
+        <v>-0.1286675487240198</v>
+      </c>
+      <c r="I94">
+        <v>0.0002434240074321561</v>
+      </c>
+      <c r="J94">
+        <v>0.02504177400824906</v>
+      </c>
+      <c r="K94">
+        <v>0.03327142643270899</v>
+      </c>
+      <c r="L94">
+        <v>-0.05676534920079218</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1218336808887203</v>
+        <v>0.1343295739930015</v>
       </c>
       <c r="C95">
-        <v>0.08370886400145004</v>
+        <v>0.07286932447901777</v>
       </c>
       <c r="D95">
-        <v>-0.08087523996475122</v>
+        <v>-0.03217236835979757</v>
       </c>
       <c r="E95">
-        <v>-0.07858803674360075</v>
+        <v>-0.05265664489886546</v>
       </c>
       <c r="F95">
-        <v>-0.04356533600985308</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.06446914086133508</v>
+      </c>
+      <c r="G95">
+        <v>0.02809598658905639</v>
+      </c>
+      <c r="H95">
+        <v>0.1328779464524668</v>
+      </c>
+      <c r="I95">
+        <v>-0.07148339627158488</v>
+      </c>
+      <c r="J95">
+        <v>-0.01411211131799232</v>
+      </c>
+      <c r="K95">
+        <v>-0.00575411652295368</v>
+      </c>
+      <c r="L95">
+        <v>-0.04662961166657907</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2503806998424064</v>
+        <v>0.1859913731610301</v>
       </c>
       <c r="C97">
-        <v>-0.1408567072898824</v>
+        <v>-0.03179045747647865</v>
       </c>
       <c r="D97">
-        <v>-0.03963760025022185</v>
+        <v>0.2783160174813852</v>
       </c>
       <c r="E97">
-        <v>0.8879049572948373</v>
+        <v>0.8960819442763347</v>
       </c>
       <c r="F97">
-        <v>0.02922145007863908</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.05651237225454684</v>
+      </c>
+      <c r="G97">
+        <v>0.03935670541027458</v>
+      </c>
+      <c r="H97">
+        <v>0.06411421556785962</v>
+      </c>
+      <c r="I97">
+        <v>-0.03378733014945851</v>
+      </c>
+      <c r="J97">
+        <v>-0.07371358438420514</v>
+      </c>
+      <c r="K97">
+        <v>0.03679700958161879</v>
+      </c>
+      <c r="L97">
+        <v>-0.007259407171831873</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.2865335806048734</v>
+        <v>0.2819953363455946</v>
       </c>
       <c r="C98">
-        <v>0.03748131788955253</v>
+        <v>0.09745862505215888</v>
       </c>
       <c r="D98">
-        <v>0.0109022560865115</v>
+        <v>-0.122321368074963</v>
       </c>
       <c r="E98">
-        <v>-0.08945306947544572</v>
+        <v>0.0505583944021347</v>
       </c>
       <c r="F98">
-        <v>-0.5225261595406427</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.2766238730396658</v>
+      </c>
+      <c r="G98">
+        <v>-0.3026069474257931</v>
+      </c>
+      <c r="H98">
+        <v>0.2608527478428302</v>
+      </c>
+      <c r="I98">
+        <v>0.2038346164808033</v>
+      </c>
+      <c r="J98">
+        <v>0.1568637987164812</v>
+      </c>
+      <c r="K98">
+        <v>-0.5891783301528712</v>
+      </c>
+      <c r="L98">
+        <v>-0.1988752309924697</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.2572062350199236</v>
+        <v>0.1566877062105792</v>
       </c>
       <c r="C99">
-        <v>0.1564134498689845</v>
+        <v>0.1057553784351433</v>
       </c>
       <c r="D99">
-        <v>0.8911759434348059</v>
+        <v>0.5911940636879625</v>
       </c>
       <c r="E99">
-        <v>0.01559790216927638</v>
+        <v>-0.1693352973078253</v>
       </c>
       <c r="F99">
-        <v>-0.1231444998731819</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.6559057504843594</v>
+      </c>
+      <c r="G99">
+        <v>0.03281185243923792</v>
+      </c>
+      <c r="H99">
+        <v>-0.1398880958274993</v>
+      </c>
+      <c r="I99">
+        <v>-0.08883527217595823</v>
+      </c>
+      <c r="J99">
+        <v>0.05918932281335586</v>
+      </c>
+      <c r="K99">
+        <v>0.03309929824333319</v>
+      </c>
+      <c r="L99">
+        <v>0.1746657195712446</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.05691153388329882</v>
+        <v>0.05357435176122316</v>
       </c>
       <c r="C101">
-        <v>-0.005248690706093788</v>
+        <v>0.01144814636011223</v>
       </c>
       <c r="D101">
-        <v>-0.03151178573173491</v>
+        <v>-0.01598009098757754</v>
       </c>
       <c r="E101">
-        <v>-0.02336231780885898</v>
+        <v>-0.02235671527938617</v>
       </c>
       <c r="F101">
-        <v>0.03578454909735233</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03843269804345701</v>
+      </c>
+      <c r="G101">
+        <v>0.03089264697473501</v>
+      </c>
+      <c r="H101">
+        <v>-0.05179322626635425</v>
+      </c>
+      <c r="I101">
+        <v>-0.0375129067807845</v>
+      </c>
+      <c r="J101">
+        <v>0.01307213619548071</v>
+      </c>
+      <c r="K101">
+        <v>-0.03869637786262306</v>
+      </c>
+      <c r="L101">
+        <v>0.001530674867957402</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
